--- a/results/MVSE/freebase/MVSE_freebase<l01><NCEK>56.13.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l01><NCEK>56.13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -827,7 +827,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -842,7 +846,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -862,20 +866,20 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.37</v>
+        <v>0.76</v>
       </c>
       <c r="O6" t="n">
-        <v>55.33</v>
+        <v>55.34</v>
       </c>
       <c r="P6" t="n">
-        <v>0.11</v>
+        <v>0.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.52</v>
+        <v>0.85</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-23_22_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_47_15', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -884,7 +888,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -896,11 +900,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -915,7 +915,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -935,23 +935,169 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O7" t="n">
+        <v>55.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-23_22_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>128</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O8" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_02_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>128</v>
+      </c>
+      <c r="H9" t="n">
+        <v>200</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.16</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O9" t="n">
         <v>55.09</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P9" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q9" t="n">
         <v>0.63</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="S9" t="n">
         <v>4096</v>
       </c>
     </row>
